--- a/Documentation/OpenEVSE/RAPIcommands.xlsx
+++ b/Documentation/OpenEVSE/RAPIcommands.xlsx
@@ -945,7 +945,7 @@
   <dimension ref="B2:N95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E89" activeCellId="0" sqref="E89"/>
+      <selection pane="topLeft" activeCell="C89" activeCellId="0" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
